--- a/all_criteria_weighted.xlsx
+++ b/all_criteria_weighted.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1020" windowWidth="30900" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30900" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="criteria2_clean_weighted" sheetId="1" r:id="rId1"/>
@@ -392,8 +392,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -419,51 +423,22 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -585,6 +560,39 @@
         </right>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -999,11 +1007,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1465157984"/>
-        <c:axId val="-1467875712"/>
+        <c:axId val="-1550917456"/>
+        <c:axId val="-1550915136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1465157984"/>
+        <c:axId val="-1550917456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1054,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1467875712"/>
+        <c:crossAx val="-1550915136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1054,7 +1062,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1467875712"/>
+        <c:axId val="-1550915136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1104,7 +1112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1465157984"/>
+        <c:crossAx val="-1550917456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1330,11 +1338,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1467991200"/>
-        <c:axId val="-1443847216"/>
+        <c:axId val="-1450863776"/>
+        <c:axId val="-1450861456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1467991200"/>
+        <c:axId val="-1450863776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,7 +1385,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1443847216"/>
+        <c:crossAx val="-1450861456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1385,7 +1393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1443847216"/>
+        <c:axId val="-1450861456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,7 +1443,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1467991200"/>
+        <c:crossAx val="-1450863776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2670,10 +2678,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:I14" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:I14" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A10:I14"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Make" dataDxfId="4"/>
+    <tableColumn id="1" name="Make" dataDxfId="3"/>
     <tableColumn id="2" name="Model"/>
     <tableColumn id="3" name="Year"/>
     <tableColumn id="4" name="Safety Comparative Score">
@@ -2700,10 +2708,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A18:I22" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A18:I22" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A18:I22"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Make" dataDxfId="1"/>
+    <tableColumn id="1" name="Make" dataDxfId="0"/>
     <tableColumn id="2" name="Model"/>
     <tableColumn id="3" name="Year"/>
     <tableColumn id="4" name="Safety Weighted Score">
@@ -2995,7 +3003,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
